--- a/data/vgp_database/Eastern_Alkaline_Province.xlsx
+++ b/data/vgp_database/Eastern_Alkaline_Province.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F0827-4596-1646-A984-FDEDEEE323A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9FC242-1F94-2245-B692-D5D4221852C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="131">
   <si>
     <t>Name:</t>
   </si>
@@ -376,6 +376,60 @@
   <si>
     <t>10.1186/BF03352740</t>
   </si>
+  <si>
+    <t>10.1186/BF03352741</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352742</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352743</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352744</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352745</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352746</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352747</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352748</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352749</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352750</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352751</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352752</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352753</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352754</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352755</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352756</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352757</t>
+  </si>
+  <si>
+    <t>10.1186/BF03352758</t>
+  </si>
 </sst>
 </file>
 
@@ -386,7 +440,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,6 +507,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -803,7 +863,7 @@
   <dimension ref="A1:AQ814"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+      <selection activeCell="AP9" sqref="AP9:AP27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1632,7 +1692,9 @@
       </c>
       <c r="AN10" s="22"/>
       <c r="AO10" s="22"/>
-      <c r="AP10" s="16"/>
+      <c r="AP10" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="AQ10" s="22"/>
     </row>
     <row r="11" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1737,7 +1799,9 @@
       </c>
       <c r="AN11" s="22"/>
       <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
+      <c r="AP11" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="AQ11" s="22"/>
     </row>
     <row r="12" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1842,7 +1906,9 @@
       </c>
       <c r="AN12" s="22"/>
       <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
+      <c r="AP12" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ12" s="22"/>
     </row>
     <row r="13" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1947,7 +2013,9 @@
       </c>
       <c r="AN13" s="22"/>
       <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
+      <c r="AP13" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="AQ13" s="22"/>
     </row>
     <row r="14" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2054,7 +2122,9 @@
       </c>
       <c r="AN14" s="22"/>
       <c r="AO14" s="22"/>
-      <c r="AP14" s="22"/>
+      <c r="AP14" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="AQ14" s="22"/>
     </row>
     <row r="15" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2161,7 +2231,9 @@
         <v>80</v>
       </c>
       <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
+      <c r="AP15" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="AQ15" s="22"/>
     </row>
     <row r="16" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2268,7 +2340,9 @@
       </c>
       <c r="AN16" s="22"/>
       <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
+      <c r="AP16" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="AQ16" s="22"/>
     </row>
     <row r="17" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2373,7 +2447,9 @@
       </c>
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
-      <c r="AP17" s="22"/>
+      <c r="AP17" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="AQ17" s="22"/>
     </row>
     <row r="18" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2476,7 +2552,9 @@
         <v>87</v>
       </c>
       <c r="AO18" s="22"/>
-      <c r="AP18" s="22"/>
+      <c r="AP18" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="AQ18" s="22"/>
     </row>
     <row r="19" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2581,7 +2659,9 @@
       </c>
       <c r="AN19" s="22"/>
       <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
+      <c r="AP19" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="AQ19" s="22"/>
     </row>
     <row r="20" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2686,7 +2766,9 @@
       </c>
       <c r="AN20" s="22"/>
       <c r="AO20" s="22"/>
-      <c r="AP20" s="22"/>
+      <c r="AP20" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="AQ20" s="22"/>
     </row>
     <row r="21" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2791,7 +2873,9 @@
       </c>
       <c r="AN21" s="22"/>
       <c r="AO21" s="22"/>
-      <c r="AP21" s="22"/>
+      <c r="AP21" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="AQ21" s="22"/>
     </row>
     <row r="22" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2896,7 +2980,9 @@
       </c>
       <c r="AN22" s="22"/>
       <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
+      <c r="AP22" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="AQ22" s="22"/>
     </row>
     <row r="23" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3001,7 +3087,9 @@
       </c>
       <c r="AN23" s="22"/>
       <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
+      <c r="AP23" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="AQ23" s="22"/>
     </row>
     <row r="24" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3106,7 +3194,9 @@
       </c>
       <c r="AN24" s="22"/>
       <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
+      <c r="AP24" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="AQ24" s="22"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3211,7 +3301,9 @@
       </c>
       <c r="AN25" s="25"/>
       <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
+      <c r="AP25" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="AQ25" s="25"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3316,7 +3408,9 @@
       </c>
       <c r="AN26" s="25"/>
       <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
+      <c r="AP26" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="AQ26" s="25"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3421,7 +3515,9 @@
       </c>
       <c r="AN27" s="25"/>
       <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
+      <c r="AP27" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="AQ27" s="25"/>
     </row>
     <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38795,6 +38891,7 @@
       <c r="AQ814" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/data/vgp_database/Eastern_Alkaline_Province.xlsx
+++ b/data/vgp_database/Eastern_Alkaline_Province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9FC242-1F94-2245-B692-D5D4221852C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B6B11-1840-F64E-A5A9-62FA40BF563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="113">
   <si>
     <t>Name:</t>
   </si>
@@ -375,60 +375,6 @@
   </si>
   <si>
     <t>10.1186/BF03352740</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352741</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352742</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352743</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352744</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352745</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352746</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352747</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352748</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352749</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352750</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352751</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352752</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352753</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352754</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352755</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352756</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352757</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352758</t>
   </si>
 </sst>
 </file>
@@ -863,7 +809,7 @@
   <dimension ref="A1:AQ814"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9:AP27"/>
+      <selection activeCell="AP10" sqref="AP10:AP27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1692,8 +1638,9 @@
       </c>
       <c r="AN10" s="22"/>
       <c r="AO10" s="22"/>
-      <c r="AP10" s="16" t="s">
-        <v>113</v>
+      <c r="AP10" s="16" t="str">
+        <f>AP9</f>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ10" s="22"/>
     </row>
@@ -1799,8 +1746,9 @@
       </c>
       <c r="AN11" s="22"/>
       <c r="AO11" s="22"/>
-      <c r="AP11" s="16" t="s">
-        <v>114</v>
+      <c r="AP11" s="16" t="str">
+        <f t="shared" ref="AP11:AP27" si="0">AP10</f>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ11" s="22"/>
     </row>
@@ -1906,8 +1854,9 @@
       </c>
       <c r="AN12" s="22"/>
       <c r="AO12" s="22"/>
-      <c r="AP12" s="16" t="s">
-        <v>115</v>
+      <c r="AP12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ12" s="22"/>
     </row>
@@ -2013,8 +1962,9 @@
       </c>
       <c r="AN13" s="22"/>
       <c r="AO13" s="22"/>
-      <c r="AP13" s="16" t="s">
-        <v>116</v>
+      <c r="AP13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ13" s="22"/>
     </row>
@@ -2122,8 +2072,9 @@
       </c>
       <c r="AN14" s="22"/>
       <c r="AO14" s="22"/>
-      <c r="AP14" s="16" t="s">
-        <v>117</v>
+      <c r="AP14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ14" s="22"/>
     </row>
@@ -2231,8 +2182,9 @@
         <v>80</v>
       </c>
       <c r="AO15" s="22"/>
-      <c r="AP15" s="16" t="s">
-        <v>118</v>
+      <c r="AP15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ15" s="22"/>
     </row>
@@ -2340,8 +2292,9 @@
       </c>
       <c r="AN16" s="22"/>
       <c r="AO16" s="22"/>
-      <c r="AP16" s="16" t="s">
-        <v>119</v>
+      <c r="AP16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ16" s="22"/>
     </row>
@@ -2447,8 +2400,9 @@
       </c>
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
-      <c r="AP17" s="16" t="s">
-        <v>120</v>
+      <c r="AP17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ17" s="22"/>
     </row>
@@ -2552,8 +2506,9 @@
         <v>87</v>
       </c>
       <c r="AO18" s="22"/>
-      <c r="AP18" s="16" t="s">
-        <v>121</v>
+      <c r="AP18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ18" s="22"/>
     </row>
@@ -2659,8 +2614,9 @@
       </c>
       <c r="AN19" s="22"/>
       <c r="AO19" s="22"/>
-      <c r="AP19" s="16" t="s">
-        <v>122</v>
+      <c r="AP19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ19" s="22"/>
     </row>
@@ -2766,8 +2722,9 @@
       </c>
       <c r="AN20" s="22"/>
       <c r="AO20" s="22"/>
-      <c r="AP20" s="16" t="s">
-        <v>123</v>
+      <c r="AP20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ20" s="22"/>
     </row>
@@ -2873,8 +2830,9 @@
       </c>
       <c r="AN21" s="22"/>
       <c r="AO21" s="22"/>
-      <c r="AP21" s="16" t="s">
-        <v>124</v>
+      <c r="AP21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ21" s="22"/>
     </row>
@@ -2980,8 +2938,9 @@
       </c>
       <c r="AN22" s="22"/>
       <c r="AO22" s="22"/>
-      <c r="AP22" s="16" t="s">
-        <v>125</v>
+      <c r="AP22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ22" s="22"/>
     </row>
@@ -3087,8 +3046,9 @@
       </c>
       <c r="AN23" s="22"/>
       <c r="AO23" s="22"/>
-      <c r="AP23" s="16" t="s">
-        <v>126</v>
+      <c r="AP23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ23" s="22"/>
     </row>
@@ -3194,8 +3154,9 @@
       </c>
       <c r="AN24" s="22"/>
       <c r="AO24" s="22"/>
-      <c r="AP24" s="16" t="s">
-        <v>127</v>
+      <c r="AP24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ24" s="22"/>
     </row>
@@ -3301,8 +3262,9 @@
       </c>
       <c r="AN25" s="25"/>
       <c r="AO25" s="25"/>
-      <c r="AP25" s="16" t="s">
-        <v>128</v>
+      <c r="AP25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ25" s="25"/>
     </row>
@@ -3408,8 +3370,9 @@
       </c>
       <c r="AN26" s="25"/>
       <c r="AO26" s="25"/>
-      <c r="AP26" s="16" t="s">
-        <v>129</v>
+      <c r="AP26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ26" s="25"/>
     </row>
@@ -3515,8 +3478,9 @@
       </c>
       <c r="AN27" s="25"/>
       <c r="AO27" s="25"/>
-      <c r="AP27" s="16" t="s">
-        <v>130</v>
+      <c r="AP27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352740</v>
       </c>
       <c r="AQ27" s="25"/>
     </row>
